--- a/Docs/Reports/TPS/TPS Report Main Project Generic.xlsx
+++ b/Docs/Reports/TPS/TPS Report Main Project Generic.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odi-setup\Desktop\Git\Team3.14\Docs\Reports\TPS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955"/>
   </bookViews>
@@ -10,27 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>Jason Pearson</t>
-  </si>
-  <si>
-    <t>Justin Koehler</t>
-  </si>
-  <si>
-    <t>Marcel Eingenmerjer</t>
-  </si>
-  <si>
-    <t>Team 3.14</t>
-  </si>
-  <si>
-    <t>Temperature Sensing Team</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Set Date:</t>
   </si>
@@ -60,16 +49,22 @@
   </si>
   <si>
     <t>Teammate</t>
+  </si>
+  <si>
+    <t>Team 3.14: Temperature Sensing Team</t>
+  </si>
+  <si>
+    <t>Marcel Englmaier, Justing Koehler, Jason Pearson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +84,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,8 +128,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -131,6 +147,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -177,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +233,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,88 +444,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="A12:F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
+    <row r="1" spans="1:6" ht="18" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" s="3"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
